--- a/E-29 Documentation/E-29 BOM.xlsx
+++ b/E-29 Documentation/E-29 BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremie\Documents\SVN\Design\Electronic Design\E-29 Humidity Sensor\Production\Manufacturing Instructions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770DD97E-B582-4406-AF67-174E3DDEB754}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD763AEB-388D-4335-A498-421FA222296C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26640" yWindow="2160" windowWidth="21600" windowHeight="11385" xr2:uid="{27CBD8A3-62A9-4F36-A53F-CC7B60137524}"/>
+    <workbookView xWindow="-25950" yWindow="2850" windowWidth="21600" windowHeight="11385" xr2:uid="{27CBD8A3-62A9-4F36-A53F-CC7B60137524}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Description</t>
   </si>
@@ -177,6 +177,15 @@
   </si>
   <si>
     <t>R1, R2</t>
+  </si>
+  <si>
+    <t>10kohm 0603 Resistor 1%</t>
+  </si>
+  <si>
+    <t>RC0603FR-0710KL</t>
+  </si>
+  <si>
+    <t>R3</t>
   </si>
 </sst>
 </file>
@@ -185,7 +194,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="170" formatCode="_-\$* #,##0.0000_ ;_-\$* \-#,##0.0000\ ;_-\$* &quot;-&quot;????_ ;_-@_ "/>
+    <numFmt numFmtId="165" formatCode="_-\$* #,##0.0000_ ;_-\$* \-#,##0.0000\ ;_-\$* &quot;-&quot;????_ ;_-@_ "/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -413,19 +422,19 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -744,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE54FE49-3B82-4A09-B31E-7DA05F396701}">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,11 +789,11 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
@@ -880,7 +889,7 @@
         <v>23</v>
       </c>
       <c r="F6" s="28"/>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="32" t="s">
         <v>25</v>
       </c>
       <c r="H6" s="19"/>
@@ -909,7 +918,7 @@
         <v>28</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="30" t="s">
         <v>29</v>
       </c>
       <c r="H7" s="7"/>
@@ -929,24 +938,24 @@
       <c r="E8" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="32"/>
+      <c r="F8" s="31"/>
       <c r="G8" s="14"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="20"/>
@@ -966,112 +975,128 @@
         <v>2</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
+        <v>2</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
         <v>3</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C12" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="22" t="s">
+      <c r="D12" s="23"/>
+      <c r="E12" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="27">
+      <c r="F12" s="21"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="27">
         <v>1</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B13" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C13" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27" t="s">
+      <c r="D13" s="27"/>
+      <c r="E13" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="24" t="s">
+      <c r="F13" s="31"/>
+      <c r="G13" s="24" t="s">
         <v>39</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="30">
-        <v>1</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="27">
+      <c r="A14" s="29">
         <v>1</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="27">
+        <v>1</v>
+      </c>
+      <c r="B15" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C15" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D15" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E15" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="24" t="s">
+      <c r="F15" s="6"/>
+      <c r="G15" s="24" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
@@ -1092,8 +1117,8 @@
       <c r="E17" s="12"/>
       <c r="F17" s="13"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
@@ -1191,6 +1216,7 @@
       <c r="E26" s="12"/>
       <c r="F26" s="13"/>
       <c r="G26" s="14"/>
+      <c r="H26" s="7"/>
       <c r="I26" s="7"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1199,7 +1225,7 @@
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
-      <c r="F27" s="15"/>
+      <c r="F27" s="13"/>
       <c r="G27" s="14"/>
       <c r="I27" s="7"/>
     </row>
@@ -1209,17 +1235,27 @@
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
-      <c r="F28" s="13"/>
+      <c r="F28" s="15"/>
       <c r="G28" s="14"/>
+      <c r="I28" s="7"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1227,11 +1263,11 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1" xr:uid="{96289650-96E1-442A-9C76-A2AF61E433E8}"/>
-    <hyperlink ref="G13" r:id="rId2" xr:uid="{FF615AD0-FA26-40A8-932D-D003BB2680A9}"/>
+    <hyperlink ref="G14" r:id="rId2" xr:uid="{FF615AD0-FA26-40A8-932D-D003BB2680A9}"/>
     <hyperlink ref="G6" r:id="rId3" xr:uid="{9545DB68-9750-4C06-BF1D-8A682EEE4CC9}"/>
     <hyperlink ref="G7" r:id="rId4" xr:uid="{4F21BC99-3D50-4C0A-BB8C-F7E69B83DF15}"/>
-    <hyperlink ref="G12" r:id="rId5" xr:uid="{AE4ADDAA-13EA-42B8-84A7-F96803428DE7}"/>
-    <hyperlink ref="G14" r:id="rId6" xr:uid="{82910C73-11BF-43EE-BEAE-1969D8AB553C}"/>
+    <hyperlink ref="G13" r:id="rId5" xr:uid="{AE4ADDAA-13EA-42B8-84A7-F96803428DE7}"/>
+    <hyperlink ref="G15" r:id="rId6" xr:uid="{82910C73-11BF-43EE-BEAE-1969D8AB553C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
